--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -609,7 +609,7 @@
         <v>1.56</v>
       </c>
       <c r="I2">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J2">
         <v>4.58</v>
@@ -651,7 +651,7 @@
         <v>31.7</v>
       </c>
       <c r="W2">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X2">
         <v>4.77</v>
@@ -683,7 +683,7 @@
         <v>0.29</v>
       </c>
       <c r="I3">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J3">
         <v>9.41</v>
@@ -751,13 +751,13 @@
         <v>251.02</v>
       </c>
       <c r="G4">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H4">
         <v>0.84</v>
       </c>
       <c r="I4">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J4">
         <v>0.84</v>
@@ -799,7 +799,7 @@
         <v>261.24</v>
       </c>
       <c r="W4">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X4">
         <v>4.77</v>
@@ -831,10 +831,10 @@
         <v>0.86</v>
       </c>
       <c r="I5">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J5">
-        <v>2.820666666666667</v>
+        <v>2.82</v>
       </c>
       <c r="K5">
         <v>1.7</v>
@@ -873,7 +873,7 @@
         <v>408.87</v>
       </c>
       <c r="W5">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X5">
         <v>16.51</v>
@@ -905,7 +905,7 @@
         <v>0.37</v>
       </c>
       <c r="I6">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J6">
         <v>0.74</v>
@@ -947,7 +947,7 @@
         <v>147</v>
       </c>
       <c r="W6">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X6">
         <v>16.51</v>
@@ -979,7 +979,7 @@
         <v>13.34</v>
       </c>
       <c r="I7">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J7">
         <v>0.76</v>
@@ -1047,7 +1047,7 @@
         <v>72.73</v>
       </c>
       <c r="G8">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H8">
         <v>2.18</v>
@@ -1121,7 +1121,7 @@
         <v>1.35</v>
       </c>
       <c r="G9">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H9">
         <v>1.4</v>
@@ -1169,7 +1169,7 @@
         <v>33.95</v>
       </c>
       <c r="W9">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X9">
         <v>1.65</v>
@@ -1195,7 +1195,7 @@
         <v>0.63</v>
       </c>
       <c r="G10">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H10">
         <v>0.01</v>
@@ -1269,7 +1269,7 @@
         <v>-13.65</v>
       </c>
       <c r="G11">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H11">
         <v>0.01</v>
@@ -1343,7 +1343,7 @@
         <v>-17.05</v>
       </c>
       <c r="G12">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H12">
         <v>0.01</v>
@@ -1417,7 +1417,7 @@
         <v>-22.26</v>
       </c>
       <c r="G13">
-        <v>3.642307692307692</v>
+        <v>3.64</v>
       </c>
       <c r="H13">
         <v>0.02</v>
@@ -1530,7 +1530,7 @@
         <v>0.04</v>
       </c>
       <c r="T14">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U14">
         <v>1.21</v>
@@ -1604,7 +1604,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="T15">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U15">
         <v>0.99</v>
@@ -1678,7 +1678,7 @@
         <v>0.08</v>
       </c>
       <c r="T16">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U16">
         <v>1.76</v>
@@ -1752,7 +1752,7 @@
         <v>0.42</v>
       </c>
       <c r="T17">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U17">
         <v>2.01</v>
@@ -1793,10 +1793,10 @@
         <v>2.19</v>
       </c>
       <c r="I18">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J18">
-        <v>2.820666666666667</v>
+        <v>2.82</v>
       </c>
       <c r="K18">
         <v>0.13</v>
@@ -1826,7 +1826,7 @@
         <v>0.04</v>
       </c>
       <c r="T18">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U18">
         <v>0.78</v>
@@ -1835,7 +1835,7 @@
         <v>2.02</v>
       </c>
       <c r="W18">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X18">
         <v>0.05</v>
@@ -1867,10 +1867,10 @@
         <v>0.51</v>
       </c>
       <c r="I19">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J19">
-        <v>2.820666666666667</v>
+        <v>2.82</v>
       </c>
       <c r="K19">
         <v>0.4</v>
@@ -1894,13 +1894,13 @@
         <v>7.66</v>
       </c>
       <c r="R19">
-        <v>15.12736842105263</v>
+        <v>15.13</v>
       </c>
       <c r="S19">
         <v>0.01</v>
       </c>
       <c r="T19">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U19">
         <v>0.01</v>
@@ -1909,7 +1909,7 @@
         <v>7.67</v>
       </c>
       <c r="W19">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X19">
         <v>0.05</v>
@@ -1941,10 +1941,10 @@
         <v>1.39</v>
       </c>
       <c r="I20">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J20">
-        <v>2.820666666666667</v>
+        <v>2.82</v>
       </c>
       <c r="K20">
         <v>0.91</v>
@@ -1974,7 +1974,7 @@
         <v>0.74</v>
       </c>
       <c r="T20">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U20">
         <v>1.56</v>
@@ -1983,7 +1983,7 @@
         <v>9.44</v>
       </c>
       <c r="W20">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X20">
         <v>0.05</v>
@@ -2015,10 +2015,10 @@
         <v>1.84</v>
       </c>
       <c r="I21">
-        <v>15.859</v>
+        <v>15.86</v>
       </c>
       <c r="J21">
-        <v>2.820666666666667</v>
+        <v>2.82</v>
       </c>
       <c r="K21">
         <v>1.06</v>
@@ -2048,7 +2048,7 @@
         <v>0.1</v>
       </c>
       <c r="T21">
-        <v>5.430833333333333</v>
+        <v>5.43</v>
       </c>
       <c r="U21">
         <v>2.25</v>
@@ -2057,7 +2057,7 @@
         <v>9.92</v>
       </c>
       <c r="W21">
-        <v>6.104545454545454</v>
+        <v>6.1</v>
       </c>
       <c r="X21">
         <v>0.05</v>
